--- a/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.947999973367701</v>
+        <v>0.052000026632299</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.998541680155219</v>
+        <v>0.0014583198447809</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0238241556504994</v>
+        <v>0.976175844349501</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.602273463885575</v>
+        <v>0.397726536114425</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>

--- a/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5129720018388511</v>
+        <v>0.21399174797286</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.880952380952381</v>
+        <v>0.825</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.606658753564947</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.40905652598451</v>
+        <v>-0.593574370027795</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21330691608746</v>
+        <v>1.65718531531839</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.82785488470899</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.052000026632299</v>
+        <v>0.020915297282622</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.928571428571429</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.57</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0948701298701299</v>
+        <v>-0.074142327685791</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.193852348994648</v>
+        <v>-0.149619290428151</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.0138649198239153</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.897541436803499</v>
+        <v>-0.701441132315904</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0051610594277155</v>
+        <v>0.0140997155703917</v>
       </c>
       <c r="G4" t="n">
-        <v>0.568965517241379</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.137931034482759</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.27504480654133</v>
+        <v>0.469683596731774</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8979591836734691</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="H5" t="n">
-        <v>0.204081632653061</v>
+        <v>0.188679245283019</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.805423010291884</v>
+        <v>0.9999972314077</v>
       </c>
       <c r="G6" t="n">
-        <v>0.327586206896552</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="H6" t="n">
-        <v>0.120689655172414</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0005929383116882999</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0002617728701999</v>
+        <v>-0.0008370893812069999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-29.6469155844156</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.346120497455538</v>
+        <v>0.830172412503015</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.913793103448276</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1043,16 +1043,16 @@
         <v>0.379</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007454081632653</v>
+        <v>-0.0206540178571429</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0324694943523365</v>
+        <v>-0.0586258800847643</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0506491394556212</v>
+        <v>0.0163488968027403</v>
       </c>
       <c r="N7" t="n">
-        <v>1.96677615637284</v>
+        <v>-5.44960893328307</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0014583198447809</v>
+        <v>0.0036332507713829</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.872727272727273</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.53</v>
+        <v>7.505</v>
       </c>
       <c r="K8" t="n">
+        <v>-0.0852918956043956</v>
+      </c>
+      <c r="L8" t="n">
         <v>-0.130446428571428</v>
       </c>
-      <c r="L8" t="n">
-        <v>-0.177210922967772</v>
-      </c>
       <c r="M8" t="n">
-        <v>-0.0787594418005359</v>
+        <v>-0.0540693737416814</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.7323562891292</v>
+        <v>-1.13646762963885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.343652385423293</v>
+        <v>0.8285081831912749</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.931034482758621</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3955</v>
+        <v>0.389</v>
       </c>
       <c r="K9" t="n">
-        <v>0.008301136363636301</v>
+        <v>-0.0207984515484516</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0301111198391316</v>
+        <v>-0.0558575491646487</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0502615909043557</v>
+        <v>0.0164771103994961</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0988966785427</v>
+        <v>-5.34664564227546</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.187866332575044</v>
+        <v>0.614457968297824</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.741379310344828</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0215613931523022</v>
+        <v>-0.0041583203085885</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0167494943970017</v>
+        <v>-0.0238892595615511</v>
       </c>
       <c r="M10" t="n">
-        <v>0.060672757475083</v>
+        <v>0.0208044514574797</v>
       </c>
       <c r="N10" t="n">
-        <v>3.81617577916854</v>
+        <v>-0.756058237925181</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0221745246468183</v>
+        <v>0.0809039929491798</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.517241379310345</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0009317602040816</v>
+        <v>0.000909336099585</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002315577489348</v>
+        <v>0.0021882191423468</v>
       </c>
       <c r="N11" t="n">
-        <v>9.317602040816331</v>
+        <v>8.266691814409651</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0511787627861393</v>
+        <v>0.0344033944111115</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.785714285714286</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.25</v>
+        <v>4.525</v>
       </c>
       <c r="K12" t="n">
-        <v>0.30939217032967</v>
+        <v>0.30103021978022</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0108190993747977</v>
       </c>
       <c r="M12" t="n">
-        <v>0.627529318685645</v>
+        <v>0.614887579117234</v>
       </c>
       <c r="N12" t="n">
-        <v>7.27981577246283</v>
+        <v>6.6526015421043</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.976175844349501</v>
+        <v>0.9486359866905399</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.862745098039216</v>
+        <v>0.815789473684211</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>10.465</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0439819376026274</v>
+        <v>0.0339860426929392</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0088306900195745</v>
+        <v>-0.0011867593108791</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0931759296040004</v>
+        <v>0.0716331106895097</v>
       </c>
       <c r="N13" t="n">
-        <v>0.420276517941972</v>
+        <v>0.324759127500614</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.98931478944966</v>
+        <v>0.997852443814679</v>
       </c>
       <c r="G14" t="n">
-        <v>0.419047619047619</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H14" t="n">
-        <v>0.114285714285714</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0002308786346396</v>
+        <v>-0.0002305159612545</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.716156323782945</v>
+        <v>0.655106009894089</v>
       </c>
       <c r="G15" t="n">
-        <v>0.885416666666667</v>
+        <v>0.87962962962963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1875</v>
+        <v>0.185185185185185</v>
       </c>
       <c r="I15" t="n">
         <v>7</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.989109796959011</v>
+        <v>0.999977315254334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.276190476190476</v>
+        <v>0.341880341880342</v>
       </c>
       <c r="H16" t="n">
-        <v>0.114285714285714</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1858,16 +1858,16 @@
         <v>0.003</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.0001843765774861</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0002529419687689</v>
+        <v>-0.0003087489433643</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-6.14588591620394</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.994127892602087</v>
+        <v>0.99850221280582</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.952380952380952</v>
+        <v>0.957264957264957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4851</v>
+        <v>0.471</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0297089107960058</v>
+        <v>-0.028461038961039</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0506364883378445</v>
+        <v>-0.0457008155828836</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.009365018838257201</v>
+        <v>-0.0127603017260923</v>
       </c>
       <c r="N17" t="n">
-        <v>-6.12428587837679</v>
+        <v>-6.04268343121846</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.397726536114425</v>
+        <v>0.262615025872859</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.705882352941177</v>
+        <v>0.6754385964912279</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.52</v>
+        <v>7.51</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0069971264367815</v>
+        <v>-0.0099911121848508</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.023484937218746</v>
+        <v>-0.0225772664835164</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0179374523709984</v>
+        <v>0.0109638679094912</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0930468941061376</v>
+        <v>-0.133037445870184</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2104,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2112,31 +2112,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.995631781768924</v>
+        <v>0.998456105826092</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9428571428571429</v>
+        <v>0.965811965811966</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.497</v>
+        <v>0.474</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.030798049973559</v>
+        <v>-0.0304569488817891</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0509061867488899</v>
+        <v>-0.0433948162715718</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0113416906164284</v>
+        <v>-0.0143037716420726</v>
       </c>
       <c r="N19" t="n">
-        <v>-6.19679073914667</v>
+        <v>-6.42551664172767</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2203,31 +2203,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.980435883117497</v>
+        <v>0.9978706440191289</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6857142857142861</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0189610655737705</v>
+        <v>-0.0202033274233754</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0398383159339195</v>
+        <v>-0.0361936866357975</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0041716017337168</v>
+        <v>-0.0080860875667559</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.96266649590164</v>
+        <v>-3.25860119731861</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0207157715881728</v>
+        <v>0.0474326378999681</v>
       </c>
       <c r="G21" t="n">
-        <v>0.019047619047619</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H21" t="n">
-        <v>0.371428571428571</v>
+        <v>0.367521367521368</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2309,16 +2309,16 @@
         <v>0.01</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0004235196590753</v>
+        <v>0.0003285420891602</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008553864168618</v>
+        <v>0.0007182648135007</v>
       </c>
       <c r="N21" t="n">
-        <v>4.23519659075376</v>
+        <v>3.28542089160256</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.40324797025367</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2400,16 +2400,16 @@
         <v>0.458</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0221645173738467</v>
+        <v>0.028274852246634</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.116088008143894</v>
+        <v>-0.0423542572185553</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0532131473063685</v>
+        <v>0.0557937693963127</v>
       </c>
       <c r="N22" t="n">
-        <v>-4.83941427376565</v>
+        <v>6.17354852546593</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.231216363225238</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>106.86</v>
+        <v>109.57</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.21914883321302</v>
+        <v>0.118744992569618</v>
       </c>
       <c r="L23" t="n">
         <v>-8.37576209223832</v>
       </c>
       <c r="M23" t="n">
-        <v>1.99840894667697</v>
+        <v>4.82506037385531</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.14088417856356</v>
+        <v>0.108373635638968</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.889664319040077</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.12</v>
+        <v>6.258</v>
       </c>
       <c r="K24" t="n">
-        <v>0.116346266522258</v>
+        <v>0.345918038850152</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.447230391595367</v>
+        <v>0.0324362280233659</v>
       </c>
       <c r="M24" t="n">
         <v>0.521327309871979</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9010827863114</v>
+        <v>5.52761327660837</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.038166370188179</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2658,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.51</v>
+        <v>0.5155</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0220026545519923</v>
+        <v>-0.0148502740977615</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0377505318098944</v>
+        <v>-0.0302033158028902</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0038959328119335</v>
+        <v>0.0016890463661578</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.31424599058673</v>
+        <v>-2.88075152235917</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.087654040404137</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2745,19 +2745,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109</v>
+        <v>109.285</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.09627163293197</v>
+        <v>-0.75369047619048</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.39049907143478</v>
+        <v>-2.13417463286886</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0156343151605444</v>
+        <v>0.842346024703969</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.0057537916807</v>
+        <v>-0.689655923677064</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.458482618314432</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.258</v>
+        <v>6.2935</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0213171321988692</v>
+        <v>0.0241560768698061</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.253286506442167</v>
+        <v>-0.145933780280412</v>
       </c>
       <c r="M27" t="n">
-        <v>0.26622457250971</v>
+        <v>0.273257474708751</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.340638098415935</v>
+        <v>0.383825802332662</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>

--- a/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/trend_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -130,46 +130,43 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -642,37 +639,37 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.21399174797286</v>
+        <v>0.449123005824065</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.825</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.75</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>0.606658753564947</v>
+        <v>0.0639443277310924</v>
       </c>
       <c r="L2">
-        <v>-0.593574370027795</v>
+        <v>-0.965673009698641</v>
       </c>
       <c r="M2">
-        <v>1.65718531531839</v>
+        <v>1.17866658565143</v>
       </c>
       <c r="N2">
-        <v>7.82785488470899</v>
+        <v>1.06573879551821</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <v>1829637.96</v>
@@ -681,19 +678,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
         <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -710,40 +707,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>0.020915297282622</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.87719298245614</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.57</v>
+        <v>10.56</v>
       </c>
       <c r="K3">
-        <v>-0.074142327685791</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.149619290428151</v>
+        <v>-0.0847066637956399</v>
       </c>
       <c r="M3">
-        <v>-0.0138649198239153</v>
+        <v>0.0583980567184848</v>
       </c>
       <c r="N3">
-        <v>-0.701441132315904</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1829637.96</v>
@@ -752,19 +749,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,19 +781,19 @@
         <v>38</v>
       </c>
       <c r="F4">
-        <v>0.0140997155703917</v>
+        <v>0.154053325388756</v>
       </c>
       <c r="G4">
-        <v>0.610169491525424</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.152542372881356</v>
+        <v>0.228070175438596</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0025</v>
+        <v>0.004</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -805,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0005085946135619</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1829637.96</v>
@@ -823,19 +820,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,16 +852,16 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.469683596731774</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.867924528301887</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="H5">
-        <v>0.188679245283019</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0.005</v>
@@ -882,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1829637.96</v>
@@ -894,19 +891,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,37 +920,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.9999972314077</v>
+        <v>0.999993976673228</v>
       </c>
       <c r="G6">
-        <v>0.423728813559322</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="H6">
-        <v>0.11864406779661</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K6">
-        <v>-0.0005929383116882999</v>
+        <v>-0.0003938510148277</v>
       </c>
       <c r="L6">
-        <v>-0.0008370893812069999</v>
+        <v>-0.0007077259877222</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-29.6469155844156</v>
+        <v>-39.3851014827715</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
         <v>45</v>
@@ -965,19 +962,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,34 +994,34 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.830172412503015</v>
+        <v>0.803352729569189</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.932203389830508</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.379</v>
+        <v>0.347</v>
       </c>
       <c r="K7">
-        <v>-0.0206540178571429</v>
+        <v>-0.015472074067325</v>
       </c>
       <c r="L7">
-        <v>-0.0586258800847643</v>
+        <v>-0.0534367651796942</v>
       </c>
       <c r="M7">
-        <v>0.0163488968027403</v>
+        <v>0.0180349528427439</v>
       </c>
       <c r="N7">
-        <v>-5.44960893328307</v>
+        <v>-4.45881097041067</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
         <v>46</v>
@@ -1036,19 +1033,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,40 +1059,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0036332507713829</v>
+        <v>0.041615562419539</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.857142857142857</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.505</v>
+        <v>7.395</v>
       </c>
       <c r="K8">
-        <v>-0.0852918956043956</v>
+        <v>-0.0544286963036961</v>
       </c>
       <c r="L8">
-        <v>-0.130446428571428</v>
+        <v>-0.09780445798240039</v>
       </c>
       <c r="M8">
-        <v>-0.0540693737416814</v>
+        <v>-0.002038126014107</v>
       </c>
       <c r="N8">
-        <v>-1.13646762963885</v>
+        <v>-0.736020233991834</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>47</v>
@@ -1107,16 +1104,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,34 +1133,34 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.8285081831912749</v>
+        <v>0.718454693230602</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.949152542372881</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="K9">
-        <v>-0.0207984515484516</v>
+        <v>-0.0111161333452979</v>
       </c>
       <c r="L9">
-        <v>-0.0558575491646487</v>
+        <v>-0.0511175759615355</v>
       </c>
       <c r="M9">
-        <v>0.0164771103994961</v>
+        <v>0.0240156043174202</v>
       </c>
       <c r="N9">
-        <v>-5.34664564227546</v>
+        <v>-2.92529824876261</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>46</v>
@@ -1175,19 +1172,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1201,19 +1198,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.614457968297824</v>
+        <v>0.9548802908712301</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.6610169491525421</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1222,22 +1219,22 @@
         <v>0.55</v>
       </c>
       <c r="K10">
-        <v>-0.0041583203085885</v>
+        <v>-0.0296359858459513</v>
       </c>
       <c r="L10">
-        <v>-0.0238892595615511</v>
+        <v>-0.0650011475211546</v>
       </c>
       <c r="M10">
-        <v>0.0208044514574797</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.756058237925181</v>
+        <v>-5.38836106290023</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1829637.96</v>
@@ -1246,19 +1243,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,37 +1275,37 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0809039929491798</v>
+        <v>0.815165178952984</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.542372881355932</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K11">
-        <v>0.000909336099585</v>
+        <v>-0.0005352915313852</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.002375670384761</v>
       </c>
       <c r="M11">
-        <v>0.0021882191423468</v>
+        <v>0.0005674086799612</v>
       </c>
       <c r="N11">
-        <v>8.266691814409651</v>
+        <v>-4.46076276154401</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1829637.96</v>
@@ -1317,19 +1314,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,37 +1346,37 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.0344033944111115</v>
+        <v>0.167782789946598</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.760869565217391</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.525</v>
+        <v>4.825</v>
       </c>
       <c r="K12">
-        <v>0.30103021978022</v>
+        <v>0.175857303238392</v>
       </c>
       <c r="L12">
-        <v>0.0108190993747977</v>
+        <v>-0.149690668801177</v>
       </c>
       <c r="M12">
-        <v>0.614887579117234</v>
+        <v>0.41030775580266</v>
       </c>
       <c r="N12">
-        <v>6.6526015421043</v>
+        <v>3.64471094794595</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1829637.96</v>
@@ -1388,19 +1385,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
-      </c>
-      <c r="W12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,34 +1417,34 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.9486359866905399</v>
+        <v>0.94876752325908</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.815789473684211</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.465</v>
+        <v>10.545</v>
       </c>
       <c r="K13">
-        <v>0.0339860426929392</v>
+        <v>0.0312072795625427</v>
       </c>
       <c r="L13">
-        <v>-0.0011867593108791</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0716331106895097</v>
+        <v>0.06303929024791349</v>
       </c>
       <c r="N13">
-        <v>0.324759127500614</v>
+        <v>0.295943855500642</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
         <v>49</v>
@@ -1459,19 +1456,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,28 +1485,28 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.997852443814679</v>
+        <v>0.986913014522776</v>
       </c>
       <c r="G14">
-        <v>0.444444444444444</v>
+        <v>0.508620689655172</v>
       </c>
       <c r="H14">
-        <v>0.111111111111111</v>
+        <v>0.09482758620689651</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.0002305159612545</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1518,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1829637.96</v>
@@ -1530,19 +1527,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,13 +1559,13 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.655106009894089</v>
+        <v>0.329222463227264</v>
       </c>
       <c r="G15">
-        <v>0.87962962962963</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="H15">
-        <v>0.185185185185185</v>
+        <v>0.168224299065421</v>
       </c>
       <c r="I15">
         <v>7</v>
@@ -1589,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
@@ -1601,19 +1598,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.999977315254334</v>
+        <v>0.999995161978523</v>
       </c>
       <c r="G16">
-        <v>0.341880341880342</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="H16">
-        <v>0.102564102564103</v>
+        <v>0.112068965517241</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="K16">
-        <v>-0.0001843765774861</v>
+        <v>-0.0001961600429645</v>
       </c>
       <c r="L16">
-        <v>-0.0003087489433643</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-6.14588591620394</v>
+        <v>-7.84640171858217</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
         <v>45</v>
@@ -1672,19 +1669,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,34 +1701,34 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.99850221280582</v>
+        <v>0.999464852117936</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.957264957264957</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.471</v>
+        <v>0.422</v>
       </c>
       <c r="K17">
-        <v>-0.028461038961039</v>
+        <v>-0.0306403578672849</v>
       </c>
       <c r="L17">
-        <v>-0.0457008155828836</v>
+        <v>-0.0476632404921644</v>
       </c>
       <c r="M17">
-        <v>-0.0127603017260923</v>
+        <v>-0.0149057804943303</v>
       </c>
       <c r="N17">
-        <v>-6.04268343121846</v>
+        <v>-7.26074830978314</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
         <v>45</v>
@@ -1743,19 +1740,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1769,19 +1766,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.262615025872859</v>
+        <v>0.034633123169496</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.6754385964912279</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1790,22 +1787,22 @@
         <v>7.51</v>
       </c>
       <c r="K18">
-        <v>-0.0099911121848508</v>
+        <v>-0.0192553730148115</v>
       </c>
       <c r="L18">
-        <v>-0.0225772664835164</v>
+        <v>-0.0350800491730202</v>
       </c>
       <c r="M18">
-        <v>0.0109638679094912</v>
+        <v>-0.0017687651331719</v>
       </c>
       <c r="N18">
-        <v>-0.133037445870184</v>
+        <v>-0.25639644493757</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1829637.96</v>
@@ -1814,16 +1811,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,40 +1834,40 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.998456105826092</v>
+        <v>0.999169259659651</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.965811965811966</v>
+        <v>0.956896551724138</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.474</v>
+        <v>0.434</v>
       </c>
       <c r="K19">
-        <v>-0.0304569488817891</v>
+        <v>-0.0300352994458653</v>
       </c>
       <c r="L19">
-        <v>-0.0433948162715718</v>
+        <v>-0.04667816389449</v>
       </c>
       <c r="M19">
-        <v>-0.0143037716420726</v>
+        <v>-0.0144897581156346</v>
       </c>
       <c r="N19">
-        <v>-6.42551664172767</v>
+        <v>-6.92057590918555</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
@@ -1882,19 +1879,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,34 +1911,34 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.9978706440191289</v>
+        <v>0.9996381463298269</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.641025641025641</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="K20">
-        <v>-0.0202033274233754</v>
+        <v>-0.0259893267651888</v>
       </c>
       <c r="L20">
-        <v>-0.0361936866357975</v>
+        <v>-0.039837918538919</v>
       </c>
       <c r="M20">
-        <v>-0.0080860875667559</v>
+        <v>-0.0132939035486806</v>
       </c>
       <c r="N20">
-        <v>-3.25860119731861</v>
+        <v>-4.22590679108762</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
         <v>45</v>
@@ -1953,19 +1950,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1985,13 +1982,13 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>0.0474326378999681</v>
+        <v>0.112029356389153</v>
       </c>
       <c r="G21">
-        <v>0.0170940170940171</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H21">
-        <v>0.367521367521368</v>
+        <v>0.370689655172414</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2000,22 +1997,22 @@
         <v>0.01</v>
       </c>
       <c r="K21">
-        <v>0.0003285420891602</v>
+        <v>0.0002254028603417</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0007182648135007</v>
+        <v>0.0006150828287418</v>
       </c>
       <c r="N21">
-        <v>3.28542089160256</v>
+        <v>2.25402860341748</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q21">
         <v>1829637.96</v>
@@ -2024,19 +2021,19 @@
         <v>5505808.3</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,7 +2053,7 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>0.889664319040077</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2071,22 +2068,22 @@
         <v>0.458</v>
       </c>
       <c r="K22">
-        <v>0.028274852246634</v>
+        <v>0.0016928796294378</v>
       </c>
       <c r="L22">
-        <v>-0.0423542572185553</v>
+        <v>-0.09385071730368851</v>
       </c>
       <c r="M22">
-        <v>0.0557937693963127</v>
+        <v>0.0345017377757129</v>
       </c>
       <c r="N22">
-        <v>6.17354852546593</v>
+        <v>0.369624373239701</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1829637.96</v>
@@ -2095,16 +2092,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2130,31 +2127,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>109.57</v>
+        <v>103</v>
       </c>
       <c r="K23">
-        <v>0.118744992569618</v>
+        <v>-0.248300475866757</v>
       </c>
       <c r="L23">
-        <v>-8.37576209223832</v>
+        <v>-10.0309761009223</v>
       </c>
       <c r="M23">
-        <v>4.82506037385531</v>
+        <v>4.54076838512438</v>
       </c>
       <c r="N23">
-        <v>0.108373635638968</v>
+        <v>-0.241068423171609</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q23">
         <v>1829637.96</v>
@@ -2163,16 +2160,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2192,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>0.95679463351315</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2207,22 +2204,22 @@
         <v>6.258</v>
       </c>
       <c r="K24">
-        <v>0.345918038850152</v>
+        <v>0.0370158630580845</v>
       </c>
       <c r="L24">
-        <v>0.0324362280233659</v>
+        <v>-0.515652667783659</v>
       </c>
       <c r="M24">
-        <v>0.521327309871979</v>
+        <v>0.272430815651327</v>
       </c>
       <c r="N24">
-        <v>5.52761327660837</v>
+        <v>0.591496693162105</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1829637.96</v>
@@ -2231,16 +2228,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2260,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>0.105248850027669</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2272,25 +2269,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5155</v>
+        <v>0.5095</v>
       </c>
       <c r="K25">
-        <v>-0.0148502740977615</v>
+        <v>-0.0137505882352941</v>
       </c>
       <c r="L25">
-        <v>-0.0302033158028902</v>
+        <v>-0.0255300241621434</v>
       </c>
       <c r="M25">
-        <v>0.0016890463661578</v>
+        <v>0.0032683313470496</v>
       </c>
       <c r="N25">
-        <v>-2.88075152235917</v>
+        <v>-2.69883969289384</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1829637.96</v>
@@ -2299,16 +2296,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2328,37 +2325,37 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>0.237137175383665</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>109.285</v>
+        <v>108.785</v>
       </c>
       <c r="K26">
-        <v>-0.75369047619048</v>
+        <v>-1.26822916666667</v>
       </c>
       <c r="L26">
-        <v>-2.13417463286886</v>
+        <v>-3.19364853321433</v>
       </c>
       <c r="M26">
-        <v>0.842346024703969</v>
+        <v>-0.169759357418118</v>
       </c>
       <c r="N26">
-        <v>-0.689655923677064</v>
+        <v>-1.16581253542921</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1829637.96</v>
@@ -2367,16 +2364,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2396,7 +2393,7 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.570986171506239</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2408,25 +2405,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>6.2935</v>
+        <v>6.189</v>
       </c>
       <c r="K27">
-        <v>0.0241560768698061</v>
+        <v>-0.0239151785714285</v>
       </c>
       <c r="L27">
-        <v>-0.145933780280412</v>
+        <v>-0.177037432908929</v>
       </c>
       <c r="M27">
-        <v>0.273257474708751</v>
+        <v>0.179646177768751</v>
       </c>
       <c r="N27">
-        <v>0.383825802332662</v>
+        <v>-0.386414260323615</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q27">
         <v>1829637.96</v>
@@ -2435,16 +2432,16 @@
         <v>5505808.3</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
